--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_16_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_16_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54658.98573899868</v>
+        <v>10877138.16206073</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54658.98573899868</v>
+        <v>10877138.16206073</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2013.865861649241</v>
+        <v>327944.6880732227</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2013.865861649241</v>
+        <v>327944.6880732227</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265976938.505339</v>
+        <v>51983947.89392663</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10768.20100064845</v>
+        <v>1190665.768371082</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20569.36051129412</v>
+        <v>2229651.826645472</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30370.52002193978</v>
+        <v>3268637.884919864</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40358.66457301074</v>
+        <v>4315258.201631101</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50308.16346751603</v>
+        <v>5354188.032685773</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60257.66236202132</v>
+        <v>6393117.863740444</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70207.1612565266</v>
+        <v>7432047.694795111</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80156.66015103189</v>
+        <v>8470977.525849778</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90256.84014981423</v>
+        <v>9490600.376904448</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100206.3390443195</v>
+        <v>10529530.20795911</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>110155.8379388248</v>
+        <v>11568460.03901378</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>119946.6346211875</v>
+        <v>12599755.61163162</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>129776.076960116</v>
+        <v>13638741.66990601</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>139829.6082065273</v>
+        <v>14644844.95482779</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>150035.5771108347</v>
+        <v>15628248.8371484</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>371</v>
@@ -27052,13 +27052,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>350</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>61</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
